--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/42/word_level_predictions_42.xlsx
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G51" s="2" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,57 +4553,57 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9134,106 +9134,106 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
+      <c r="A168" t="n">
         <v>16</v>
       </c>
-      <c r="B168" s="2" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C168" s="2" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D168" s="2" t="n">
+      <c r="D168" t="n">
         <v>3</v>
       </c>
-      <c r="E168" s="2" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F168" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G168" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I168" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L168" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G168" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I168" t="b">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" t="n">
         <v>16</v>
       </c>
-      <c r="B169" s="2" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C169" s="2" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D169" t="n">
         <v>4</v>
       </c>
-      <c r="E169" s="2" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F169" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G169" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L169" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G236" t="b">
@@ -12717,57 +12717,57 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -18205,187 +18205,187 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K342" t="b">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B343" s="2" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C343" s="2" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E343" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F343" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L343" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B344" s="2" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C344" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D344" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L344" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B345" s="2" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C345" s="2" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E345" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F345" s="2" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" t="b">
-        <v>1</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K342" t="b">
-        <v>1</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>30</v>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D343" t="n">
-        <v>4</v>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K343" t="b">
-        <v>1</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>30</v>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D344" t="n">
-        <v>5</v>
-      </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K344" t="b">
-        <v>1</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>30</v>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="D345" t="n">
-        <v>6</v>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K345" t="b">
-        <v>1</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="G345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L345" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="2" t="n">
+      <c r="A387" t="n">
         <v>35</v>
       </c>
-      <c r="B387" s="2" t="inlineStr">
+      <c r="B387" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" s="2" t="inlineStr">
+      <c r="C387" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" s="2" t="n">
+      <c r="D387" t="n">
         <v>0</v>
       </c>
-      <c r="E387" s="2" t="inlineStr">
+      <c r="E387" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" s="2" t="inlineStr">
+      <c r="F387" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J387" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K387" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L387" s="2" t="inlineStr">
+      <c r="G387" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K387" t="b">
+        <v>1</v>
+      </c>
+      <c r="L387" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="2" t="n">
+      <c r="A388" t="n">
         <v>35</v>
       </c>
-      <c r="B388" s="2" t="inlineStr">
+      <c r="B388" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" s="2" t="inlineStr">
+      <c r="C388" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" s="2" t="inlineStr">
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J388" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K388" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L388" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G388" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K388" t="b">
+        <v>1</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="2" t="n">
+      <c r="A389" t="n">
         <v>35</v>
       </c>
-      <c r="B389" s="2" t="inlineStr">
+      <c r="B389" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" s="2" t="inlineStr">
+      <c r="C389" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D389" s="2" t="n">
+      <c r="D389" t="n">
         <v>2</v>
       </c>
-      <c r="E389" s="2" t="inlineStr">
+      <c r="E389" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F389" s="2" t="inlineStr">
+      <c r="F389" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J389" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K389" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L389" s="2" t="inlineStr">
+      <c r="G389" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K389" t="b">
+        <v>1</v>
+      </c>
+      <c r="L389" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="2" t="n">
+      <c r="A390" t="n">
         <v>35</v>
       </c>
-      <c r="B390" s="2" t="inlineStr">
+      <c r="B390" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C390" s="2" t="inlineStr">
+      <c r="C390" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" s="2" t="n">
+      <c r="D390" t="n">
         <v>3</v>
       </c>
-      <c r="E390" s="2" t="inlineStr">
+      <c r="E390" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J390" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K390" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L390" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G390" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K390" t="b">
+        <v>1</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23642,210 +23642,210 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="n">
+      <c r="A447" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B447" t="inlineStr">
+      <c r="B447" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C447" t="inlineStr">
+      <c r="C447" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D447" t="n">
+      <c r="D447" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E447" t="inlineStr">
+      <c r="E447" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F447" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G447" t="b">
-        <v>1</v>
-      </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I447" t="b">
-        <v>1</v>
-      </c>
-      <c r="J447" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K447" t="b">
-        <v>1</v>
-      </c>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F447" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G447" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H447" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I447" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J447" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K447" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L447" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="n">
+      <c r="A448" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B448" t="inlineStr">
+      <c r="B448" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C448" t="inlineStr">
+      <c r="C448" s="2" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D448" t="n">
-        <v>1</v>
-      </c>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G448" t="b">
-        <v>1</v>
-      </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I448" t="b">
-        <v>1</v>
-      </c>
-      <c r="J448" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K448" t="b">
-        <v>1</v>
-      </c>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D448" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F448" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G448" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H448" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I448" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J448" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K448" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L448" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="n">
+      <c r="A449" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B449" t="inlineStr">
+      <c r="B449" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C449" t="inlineStr">
+      <c r="C449" s="2" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D449" t="n">
+      <c r="D449" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E449" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G449" t="b">
-        <v>1</v>
-      </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I449" t="b">
-        <v>1</v>
-      </c>
-      <c r="J449" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K449" t="b">
-        <v>1</v>
-      </c>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E449" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F449" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G449" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H449" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I449" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J449" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K449" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L449" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="n">
+      <c r="A450" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B450" t="inlineStr">
+      <c r="B450" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C450" t="inlineStr">
+      <c r="C450" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D450" t="n">
+      <c r="D450" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E450" t="inlineStr">
+      <c r="E450" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G450" t="b">
-        <v>1</v>
-      </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I450" t="b">
-        <v>1</v>
-      </c>
-      <c r="J450" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K450" t="b">
-        <v>1</v>
-      </c>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F450" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G450" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H450" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I450" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J450" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K450" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L450" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/42/word_level_predictions_42.xlsx
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G51" s="2" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4529,81 +4529,81 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>8</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strong Interference Now Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Now</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Now Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>Now</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9134,106 +9134,106 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
+      <c r="A168" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B168" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C168" s="2" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D168" t="n">
+      <c r="D168" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="E168" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G168" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I168" t="b">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K168" t="b">
-        <v>1</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F168" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G168" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I168" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J168" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C169" s="2" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E169" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G169" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K169" t="b">
-        <v>1</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F169" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12693,81 +12693,81 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>21</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>gear</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>7</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>gear</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -18205,7 +18205,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G342" t="b">
@@ -18229,163 +18229,163 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" t="n">
         <v>30</v>
       </c>
-      <c r="B343" s="2" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" s="2" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" s="2" t="n">
+      <c r="D343" t="n">
         <v>4</v>
       </c>
-      <c r="E343" s="2" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L343" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K343" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" t="n">
         <v>30</v>
       </c>
-      <c r="B344" s="2" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" s="2" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" s="2" t="n">
+      <c r="D344" t="n">
         <v>5</v>
       </c>
-      <c r="E344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L344" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K344" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" t="n">
         <v>30</v>
       </c>
-      <c r="B345" s="2" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" s="2" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" s="2" t="n">
+      <c r="D345" t="n">
         <v>6</v>
       </c>
-      <c r="E345" s="2" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L345" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K345" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n">
+      <c r="A387" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B387" t="inlineStr">
+      <c r="B387" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
+      <c r="C387" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" t="n">
+      <c r="D387" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E387" t="inlineStr">
+      <c r="E387" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" t="inlineStr">
+      <c r="F387" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G387" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K387" t="b">
-        <v>1</v>
-      </c>
-      <c r="L387" t="inlineStr">
+      <c r="G387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J387" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K387" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L387" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n">
+      <c r="A388" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B388" t="inlineStr">
+      <c r="B388" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
+      <c r="C388" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" t="inlineStr">
+      <c r="D388" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" t="inlineStr">
+      <c r="F388" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J388" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K388" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L388" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B389" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C389" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D389" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E389" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G388" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K388" t="b">
-        <v>1</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
+      <c r="F389" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J389" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K389" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L389" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B389" t="inlineStr">
+      <c r="B390" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D389" t="n">
-        <v>2</v>
-      </c>
-      <c r="E389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G389" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K389" t="b">
-        <v>1</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>35</v>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr">
+      <c r="C390" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" t="n">
+      <c r="D390" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E390" t="inlineStr">
+      <c r="E390" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G390" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K390" t="b">
-        <v>1</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F390" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J390" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K390" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L390" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -23642,210 +23642,210 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="2" t="n">
+      <c r="A447" t="n">
         <v>41</v>
       </c>
-      <c r="B447" s="2" t="inlineStr">
+      <c r="B447" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C447" s="2" t="inlineStr">
+      <c r="C447" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D447" s="2" t="n">
+      <c r="D447" t="n">
         <v>0</v>
       </c>
-      <c r="E447" s="2" t="inlineStr">
+      <c r="E447" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F447" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G447" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H447" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I447" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J447" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K447" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L447" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G447" t="b">
+        <v>1</v>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I447" t="b">
+        <v>1</v>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K447" t="b">
+        <v>1</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="2" t="n">
+      <c r="A448" t="n">
         <v>41</v>
       </c>
-      <c r="B448" s="2" t="inlineStr">
+      <c r="B448" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C448" s="2" t="inlineStr">
+      <c r="C448" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D448" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E448" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F448" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G448" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H448" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I448" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J448" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K448" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L448" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="D448" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G448" t="b">
+        <v>1</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I448" t="b">
+        <v>1</v>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K448" t="b">
+        <v>1</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="2" t="n">
+      <c r="A449" t="n">
         <v>41</v>
       </c>
-      <c r="B449" s="2" t="inlineStr">
+      <c r="B449" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C449" s="2" t="inlineStr">
+      <c r="C449" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D449" s="2" t="n">
+      <c r="D449" t="n">
         <v>2</v>
       </c>
-      <c r="E449" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F449" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G449" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H449" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I449" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J449" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K449" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L449" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G449" t="b">
+        <v>1</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I449" t="b">
+        <v>1</v>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K449" t="b">
+        <v>1</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="2" t="n">
+      <c r="A450" t="n">
         <v>41</v>
       </c>
-      <c r="B450" s="2" t="inlineStr">
+      <c r="B450" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C450" s="2" t="inlineStr">
+      <c r="C450" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D450" s="2" t="n">
+      <c r="D450" t="n">
         <v>3</v>
       </c>
-      <c r="E450" s="2" t="inlineStr">
+      <c r="E450" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F450" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G450" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H450" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I450" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J450" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K450" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L450" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G450" t="b">
+        <v>1</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I450" t="b">
+        <v>1</v>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K450" t="b">
+        <v>1</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
